--- a/文档/灵活报表数据库表设计.xlsx
+++ b/文档/灵活报表数据库表设计.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipei\Desktop\招商银行\灵活报表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_java_code\ZH_report\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1B8B5D-010E-4E93-B429-3FA4A4474232}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC5731-9D52-42C3-92F6-AAB2269E77D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="174">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,6 +693,14 @@
   </si>
   <si>
     <t>blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,6 +733,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -823,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -853,11 +884,80 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3226,16 +3326,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C51:G51">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:G50">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:G63">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:G62">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4245,16 +4345,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C42:G42 C43:D43 C44">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:G41">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:G54">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:G53">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4265,7 +4365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA777DF9-AF3B-423F-A188-39323DBD9889}">
   <dimension ref="C4:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -5081,11 +5181,1119 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C42:G42 C43:D43 C44">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:G41">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511FAAB4-015B-42F9-9D8D-95097DFBEFC3}">
+  <dimension ref="C4:M63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="45.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1">
+        <v>200</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="22">
+        <v>500</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>200</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="1">
+        <v>20</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="I57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C59" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C60" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C41:G41">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:G63">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:G62">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54 C51 C42:G42">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:G52">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:G53">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/灵活报表数据库表设计.xlsx
+++ b/文档/灵活报表数据库表设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_java_code\ZH_report\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ZH_report\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC5731-9D52-42C3-92F6-AAB2269E77D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6FEBCD-96C4-42F2-982B-11F5E087B5BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="175">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +701,10 @@
   </si>
   <si>
     <t>fill_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,18 +1350,18 @@
       <selection activeCell="H24" sqref="H24:M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="29.44140625" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" customWidth="1"/>
-    <col min="18" max="18" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="25.4140625" customWidth="1"/>
+    <col min="8" max="8" width="12.4140625" customWidth="1"/>
+    <col min="12" max="12" width="29.4140625" customWidth="1"/>
+    <col min="14" max="14" width="12.4140625" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="18" max="18" width="26.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>87</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -1569,7 +1573,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1589,7 +1593,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1689,7 +1693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,7 +1723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>47</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>86</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1891,7 +1895,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
@@ -1916,7 +1920,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1938,7 +1942,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1947,7 +1951,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1956,7 +1960,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +1972,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1992,7 +1996,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2016,7 +2020,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
@@ -2040,7 +2044,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
@@ -2062,7 +2066,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
@@ -2084,7 +2088,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2106,7 +2110,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H40" s="1" t="s">
         <v>72</v>
       </c>
@@ -2115,7 +2119,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H41" s="1" t="s">
         <v>73</v>
       </c>
@@ -2124,7 +2128,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
         <v>56</v>
       </c>
@@ -2136,7 +2140,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H43" s="1" t="s">
         <v>75</v>
       </c>
@@ -2145,7 +2149,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H44" s="1" t="s">
         <v>76</v>
       </c>
@@ -2154,7 +2158,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H45" s="1" t="s">
         <v>77</v>
       </c>
@@ -2163,7 +2167,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H46" s="1" t="s">
         <v>78</v>
       </c>
@@ -2172,7 +2176,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H47" s="1" t="s">
         <v>79</v>
       </c>
@@ -2196,15 +2200,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34.77734375" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2244,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
@@ -2416,7 +2420,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2436,7 +2440,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>43</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2566,7 +2570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>47</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
@@ -2611,7 +2615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
         <v>86</v>
       </c>
@@ -2711,7 +2715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="10" t="s">
         <v>27</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>50</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>104</v>
       </c>
@@ -2815,12 +2819,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C34" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
         <v>87</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C37" s="6" t="s">
         <v>20</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>50</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2969,7 +2973,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2978,7 +2982,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C43" s="13"/>
       <c r="I43" s="1" t="s">
         <v>32</v>
@@ -2988,7 +2992,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>88</v>
       </c>
@@ -3000,7 +3004,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
@@ -3024,7 +3028,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
         <v>112</v>
       </c>
@@ -3046,7 +3050,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C47" s="6" t="s">
         <v>90</v>
       </c>
@@ -3068,7 +3072,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3092,7 +3096,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
@@ -3112,7 +3116,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>102</v>
       </c>
@@ -3134,7 +3138,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>50</v>
       </c>
@@ -3156,7 +3160,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I52" s="1" t="s">
         <v>71</v>
       </c>
@@ -3165,7 +3169,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I53" s="1" t="s">
         <v>72</v>
       </c>
@@ -3174,7 +3178,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I54" s="1" t="s">
         <v>73</v>
       </c>
@@ -3183,7 +3187,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I55" s="1" t="s">
         <v>74</v>
       </c>
@@ -3192,7 +3196,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>107</v>
       </c>
@@ -3204,7 +3208,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +3232,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="3" t="s">
         <v>111</v>
       </c>
@@ -3250,7 +3254,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="6" t="s">
         <v>108</v>
       </c>
@@ -3272,7 +3276,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
       <c r="D60" s="5"/>
       <c r="E60" s="1"/>
@@ -3286,14 +3290,14 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>67</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>50</v>
       </c>
@@ -3350,15 +3354,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34.77734375" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3401,7 +3405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>163</v>
       </c>
@@ -3431,7 +3435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>164</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>165</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>166</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>167</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>168</v>
       </c>
@@ -3573,7 +3577,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -3593,10 +3597,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="20"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>43</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3636,7 +3640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>160</v>
       </c>
@@ -3668,7 +3672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>142</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -3746,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="6" t="s">
         <v>141</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>142</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>143</v>
       </c>
@@ -3838,7 +3842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
@@ -3892,10 +3896,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>88</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3926,7 +3930,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C37" s="18" t="s">
         <v>145</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
         <v>90</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>146</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>147</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>148</v>
       </c>
@@ -4063,7 +4067,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>50</v>
       </c>
@@ -4085,7 +4089,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C43" s="17" t="s">
         <v>100</v>
       </c>
@@ -4100,7 +4104,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C44" s="17" t="s">
         <v>87</v>
       </c>
@@ -4112,7 +4116,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I45" s="1" t="s">
         <v>34</v>
       </c>
@@ -4121,7 +4125,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I46" s="1" t="s">
         <v>35</v>
       </c>
@@ -4130,7 +4134,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I47" s="1" t="s">
         <v>36</v>
       </c>
@@ -4139,7 +4143,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>118</v>
       </c>
@@ -4154,7 +4158,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
@@ -4178,7 +4182,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="19" t="s">
         <v>149</v>
       </c>
@@ -4200,7 +4204,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="18" t="s">
         <v>111</v>
       </c>
@@ -4222,7 +4226,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="3" t="s">
         <v>87</v>
       </c>
@@ -4244,7 +4248,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>150</v>
       </c>
@@ -4266,7 +4270,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>144</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I55" s="1" t="s">
         <v>74</v>
       </c>
@@ -4297,7 +4301,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I56" s="1" t="s">
         <v>75</v>
       </c>
@@ -4306,7 +4310,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I57" s="1" t="s">
         <v>76</v>
       </c>
@@ -4315,7 +4319,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I58" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,7 +4328,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I59" s="1" t="s">
         <v>78</v>
       </c>
@@ -4333,7 +4337,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I60" s="1" t="s">
         <v>79</v>
       </c>
@@ -4369,15 +4373,15 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34.77734375" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4420,7 +4424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
@@ -4570,7 +4574,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
@@ -4592,7 +4596,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -4612,10 +4616,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="20"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>43</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -4640,7 +4644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
@@ -4655,7 +4659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -4687,7 +4691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>87</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
@@ -4825,7 +4829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>114</v>
       </c>
@@ -4876,7 +4880,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>50</v>
       </c>
@@ -4898,7 +4902,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I33" s="1" t="s">
         <v>32</v>
       </c>
@@ -4907,7 +4911,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C34" s="13"/>
       <c r="I34" s="1" t="s">
         <v>33</v>
@@ -4917,7 +4921,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>88</v>
       </c>
@@ -4932,7 +4936,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4956,7 +4960,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C37" s="18" t="s">
         <v>89</v>
       </c>
@@ -4978,7 +4982,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
         <v>20</v>
       </c>
@@ -5000,7 +5004,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>94</v>
       </c>
@@ -5024,7 +5028,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>95</v>
       </c>
@@ -5044,7 +5048,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
@@ -5066,7 +5070,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>50</v>
       </c>
@@ -5088,7 +5092,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C43" s="5" t="s">
         <v>100</v>
       </c>
@@ -5108,7 +5112,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C44" s="5" t="s">
         <v>87</v>
       </c>
@@ -5124,7 +5128,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I45" s="1" t="s">
         <v>74</v>
       </c>
@@ -5133,7 +5137,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I46" s="1" t="s">
         <v>75</v>
       </c>
@@ -5142,7 +5146,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I47" s="1" t="s">
         <v>76</v>
       </c>
@@ -5151,7 +5155,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I48" s="1" t="s">
         <v>77</v>
       </c>
@@ -5160,7 +5164,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I49" s="1" t="s">
         <v>78</v>
       </c>
@@ -5169,7 +5173,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I50" s="1" t="s">
         <v>79</v>
       </c>
@@ -5195,18 +5199,18 @@
   <dimension ref="C4:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34.77734375" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -5217,7 +5221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
@@ -5279,7 +5283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -5341,7 +5345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
@@ -5369,7 +5373,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
@@ -5421,7 +5425,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -5441,10 +5445,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="20"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>43</v>
       </c>
@@ -5452,7 +5456,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
@@ -5484,7 +5488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -5516,7 +5520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>87</v>
       </c>
@@ -5533,7 +5537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
@@ -5548,7 +5552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -5565,7 +5569,7 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -5597,7 +5601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
@@ -5657,7 +5661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>114</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>50</v>
       </c>
@@ -5743,10 +5747,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>88</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>80</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C37" s="18" t="s">
         <v>89</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
         <v>20</v>
       </c>
@@ -5820,7 +5824,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>94</v>
       </c>
@@ -5850,7 +5854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>95</v>
       </c>
@@ -5876,7 +5880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
@@ -5899,7 +5903,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>50</v>
       </c>
@@ -5921,7 +5925,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I43" s="1" t="s">
         <v>32</v>
       </c>
@@ -5930,7 +5934,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I44" s="1" t="s">
         <v>33</v>
       </c>
@@ -5939,7 +5943,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I45" s="1" t="s">
         <v>34</v>
       </c>
@@ -5948,7 +5952,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>172</v>
       </c>
@@ -5963,7 +5967,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
@@ -5987,7 +5991,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C48" s="24" t="s">
         <v>149</v>
       </c>
@@ -6009,7 +6013,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="26" t="s">
         <v>89</v>
       </c>
@@ -6031,7 +6035,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="27" t="s">
         <v>87</v>
       </c>
@@ -6053,9 +6057,9 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>171</v>
@@ -6071,7 +6075,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="25" t="s">
         <v>67</v>
       </c>
@@ -6093,7 +6097,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>50</v>
       </c>
@@ -6115,7 +6119,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I54" s="1" t="s">
         <v>73</v>
       </c>
@@ -6124,7 +6128,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I55" s="1" t="s">
         <v>74</v>
       </c>
@@ -6133,7 +6137,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I56" s="1" t="s">
         <v>75</v>
       </c>
@@ -6142,7 +6146,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="21" t="s">
         <v>107</v>
       </c>
@@ -6160,7 +6164,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="22" t="s">
         <v>1</v>
       </c>
@@ -6184,7 +6188,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="23" t="s">
         <v>149</v>
       </c>
@@ -6206,7 +6210,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="28" t="s">
         <v>89</v>
       </c>
@@ -6228,7 +6232,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="29" t="s">
         <v>87</v>
       </c>
@@ -6243,7 +6247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="22" t="s">
         <v>67</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="22" t="s">
         <v>50</v>
       </c>

--- a/文档/灵活报表数据库表设计.xlsx
+++ b/文档/灵活报表数据库表设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ZH_report\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_java_code\ZH_report\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6FEBCD-96C4-42F2-982B-11F5E087B5BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5CD871-DB21-4C65-BE24-CC05A7D7F8EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="182">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -705,6 +705,32 @@
   </si>
   <si>
     <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fillDatetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSSKEY</t>
+  </si>
+  <si>
+    <t>CREAT_USER</t>
+  </si>
+  <si>
+    <t>UPDATE_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +777,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -760,8 +785,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -858,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -888,40 +912,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1350,18 +1351,18 @@
       <selection activeCell="H24" sqref="H24:M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="25.4140625" customWidth="1"/>
-    <col min="8" max="8" width="12.4140625" customWidth="1"/>
-    <col min="12" max="12" width="29.4140625" customWidth="1"/>
-    <col min="14" max="14" width="12.4140625" customWidth="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1"/>
-    <col min="18" max="18" width="26.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="29.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" customWidth="1"/>
+    <col min="18" max="18" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>87</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -1573,7 +1574,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1593,7 +1594,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>47</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>86</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1895,7 +1896,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
@@ -1920,7 +1921,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1942,7 +1943,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1951,7 +1952,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1961,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -1972,7 +1973,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1996,7 +1997,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2020,7 +2021,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
@@ -2066,7 +2067,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
@@ -2088,7 +2089,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2110,7 +2111,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H40" s="1" t="s">
         <v>72</v>
       </c>
@@ -2119,7 +2120,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H41" s="1" t="s">
         <v>73</v>
       </c>
@@ -2128,7 +2129,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>56</v>
       </c>
@@ -2140,7 +2141,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H43" s="1" t="s">
         <v>75</v>
       </c>
@@ -2149,7 +2150,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H44" s="1" t="s">
         <v>76</v>
       </c>
@@ -2158,7 +2159,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H45" s="1" t="s">
         <v>77</v>
       </c>
@@ -2167,7 +2168,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H46" s="1" t="s">
         <v>78</v>
       </c>
@@ -2176,7 +2177,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H47" s="1" t="s">
         <v>79</v>
       </c>
@@ -2200,15 +2201,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34.75" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
@@ -2420,7 +2421,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2440,7 +2441,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>43</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>47</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>86</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
         <v>27</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>50</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>104</v>
       </c>
@@ -2819,12 +2820,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>87</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
         <v>20</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>50</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2973,7 +2974,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2982,7 +2983,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="13"/>
       <c r="I43" s="1" t="s">
         <v>32</v>
@@ -2992,7 +2993,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>88</v>
       </c>
@@ -3004,7 +3005,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
@@ -3028,7 +3029,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
         <v>112</v>
       </c>
@@ -3050,7 +3051,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47" s="6" t="s">
         <v>90</v>
       </c>
@@ -3072,7 +3073,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3096,7 +3097,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
@@ -3116,7 +3117,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>102</v>
       </c>
@@ -3138,7 +3139,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>50</v>
       </c>
@@ -3160,7 +3161,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I52" s="1" t="s">
         <v>71</v>
       </c>
@@ -3169,7 +3170,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I53" s="1" t="s">
         <v>72</v>
       </c>
@@ -3178,7 +3179,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I54" s="1" t="s">
         <v>73</v>
       </c>
@@ -3187,7 +3188,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I55" s="1" t="s">
         <v>74</v>
       </c>
@@ -3196,7 +3197,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>107</v>
       </c>
@@ -3208,7 +3209,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
@@ -3232,7 +3233,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
         <v>111</v>
       </c>
@@ -3254,7 +3255,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59" s="6" t="s">
         <v>108</v>
       </c>
@@ -3276,7 +3277,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="5"/>
       <c r="E60" s="1"/>
@@ -3290,14 +3291,14 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>67</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>50</v>
       </c>
@@ -3330,16 +3331,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C51:G51">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:G50">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:G63">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:G62">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3354,15 +3355,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34.75" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>163</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>164</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>165</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>166</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>167</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>168</v>
       </c>
@@ -3577,7 +3578,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -3597,10 +3598,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>43</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>160</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>142</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>141</v>
       </c>
@@ -3780,7 +3781,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>142</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>143</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
@@ -3896,10 +3897,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>88</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="18" t="s">
         <v>145</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>90</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>146</v>
       </c>
@@ -4018,7 +4019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>147</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>148</v>
       </c>
@@ -4067,7 +4068,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>50</v>
       </c>
@@ -4089,7 +4090,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="17" t="s">
         <v>100</v>
       </c>
@@ -4104,7 +4105,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
         <v>87</v>
       </c>
@@ -4116,7 +4117,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I45" s="1" t="s">
         <v>34</v>
       </c>
@@ -4125,7 +4126,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I46" s="1" t="s">
         <v>35</v>
       </c>
@@ -4134,7 +4135,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I47" s="1" t="s">
         <v>36</v>
       </c>
@@ -4143,7 +4144,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>118</v>
       </c>
@@ -4158,7 +4159,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" s="19" t="s">
         <v>149</v>
       </c>
@@ -4204,7 +4205,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" s="18" t="s">
         <v>111</v>
       </c>
@@ -4226,7 +4227,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
         <v>87</v>
       </c>
@@ -4248,7 +4249,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>150</v>
       </c>
@@ -4270,7 +4271,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>144</v>
       </c>
@@ -4292,7 +4293,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I55" s="1" t="s">
         <v>74</v>
       </c>
@@ -4301,7 +4302,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I56" s="1" t="s">
         <v>75</v>
       </c>
@@ -4310,7 +4311,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I57" s="1" t="s">
         <v>76</v>
       </c>
@@ -4319,7 +4320,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I58" s="1" t="s">
         <v>77</v>
       </c>
@@ -4328,7 +4329,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I59" s="1" t="s">
         <v>78</v>
       </c>
@@ -4337,7 +4338,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I60" s="1" t="s">
         <v>79</v>
       </c>
@@ -4349,16 +4350,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C42:G42 C43:D43 C44">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:G41">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:G54">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:G53">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4373,15 +4374,15 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34.75" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
@@ -4596,7 +4597,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -4616,10 +4617,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>43</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>87</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>114</v>
       </c>
@@ -4880,7 +4881,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>50</v>
       </c>
@@ -4902,7 +4903,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I33" s="1" t="s">
         <v>32</v>
       </c>
@@ -4911,7 +4912,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="13"/>
       <c r="I34" s="1" t="s">
         <v>33</v>
@@ -4921,7 +4922,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>88</v>
       </c>
@@ -4936,7 +4937,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4960,7 +4961,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="18" t="s">
         <v>89</v>
       </c>
@@ -4982,7 +4983,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>20</v>
       </c>
@@ -5004,7 +5005,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>94</v>
       </c>
@@ -5028,7 +5029,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>95</v>
       </c>
@@ -5048,7 +5049,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
@@ -5070,7 +5071,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>50</v>
       </c>
@@ -5092,7 +5093,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>100</v>
       </c>
@@ -5112,7 +5113,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>87</v>
       </c>
@@ -5128,7 +5129,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I45" s="1" t="s">
         <v>74</v>
       </c>
@@ -5137,7 +5138,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I46" s="1" t="s">
         <v>75</v>
       </c>
@@ -5146,7 +5147,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I47" s="1" t="s">
         <v>76</v>
       </c>
@@ -5155,7 +5156,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I48" s="1" t="s">
         <v>77</v>
       </c>
@@ -5164,7 +5165,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I49" s="1" t="s">
         <v>78</v>
       </c>
@@ -5173,7 +5174,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I50" s="1" t="s">
         <v>79</v>
       </c>
@@ -5185,10 +5186,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C42:G42 C43:D43 C44">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:G41">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5196,21 +5197,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511FAAB4-015B-42F9-9D8D-95097DFBEFC3}">
-  <dimension ref="C4:M63"/>
+  <dimension ref="C4:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34.75" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
@@ -5425,7 +5426,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -5445,10 +5446,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>43</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>87</v>
       </c>
@@ -5537,7 +5538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
@@ -5552,24 +5553,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
       <c r="D26" t="s">
         <v>134</v>
       </c>
-      <c r="I26" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -5585,23 +5583,23 @@
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
@@ -5617,21 +5615,21 @@
       <c r="G28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22" t="s">
+      <c r="I28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
@@ -5647,21 +5645,21 @@
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -5677,235 +5675,235 @@
       <c r="G30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="22">
-        <v>500</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="1">
+        <v>20</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="I31" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="22">
+        <v>50</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="22">
         <v>50</v>
       </c>
-      <c r="J32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="13"/>
+      <c r="I35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>88</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="I36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="18" t="s">
+      <c r="I36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
+      <c r="I39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
         <v>200</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
+      <c r="I40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K40" s="1">
-        <v>20</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>12</v>
@@ -5915,386 +5913,261 @@
         <v>10</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I43" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I44" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I45" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" t="s">
-        <v>173</v>
-      </c>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I46" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>5</v>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s">
+        <v>173</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>124</v>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>92</v>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C50" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>21</v>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="I51" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C52" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>103</v>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="G53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="I54" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="I55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="I56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C57" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="I57" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C58" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C59" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C60" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C61" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C62" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C63" s="22" t="s">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="22" t="s">
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C41:G41">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  <conditionalFormatting sqref="C42:G42">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:G63">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:G62">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54 C51 C42:G42">
+  <conditionalFormatting sqref="C56 C53 C43:G43">
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:G52">
+  <conditionalFormatting sqref="C54:G54">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:G53">
+  <conditionalFormatting sqref="C55:G55">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
